--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A2E0C-788F-4CDB-881A-C5AFE095B6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0331734-BA15-4298-8744-5E7EEEC8BA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>datum</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>opzoeken backend mogelijkheden + implementatie in android app + google fit: heart points</t>
+  </si>
+  <si>
+    <t>opzoeken activity recognition implementaties + literatuurstudie: max hartslag + personal goal setting</t>
+  </si>
+  <si>
+    <t>literatuurstudie: reinforcement learning + DDN (dynamic decision network) + implementatie METminutes scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literatuurstudie: scikit preprocessing + algoritmes voor regressie en classificatie + eerste implementatie </t>
+  </si>
+  <si>
+    <t>experimenteren: google fit in pyhton, java + goal history in firebase (berekeningen nieuwe goals via python, berekening score in android app) + activity recognition</t>
+  </si>
+  <si>
+    <t>firebase authentication + firebase admin sdk vanuit python</t>
+  </si>
+  <si>
+    <t>implementeren machine learning algoritmen voor activity recognition + literatuurstudie</t>
   </si>
 </sst>
 </file>
@@ -548,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +597,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>4.4375000000000009</v>
+        <v>5.354166666666667</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1100,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F48" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F50" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1357,27 +1375,111 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
       <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
       <c r="F47" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
       <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18749999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0331734-BA15-4298-8744-5E7EEEC8BA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734E392-2849-4A16-B893-80A158FDF796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>datum</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>implementeren machine learning algoritmen voor activity recognition + literatuurstudie</t>
+  </si>
+  <si>
+    <t>activity recognition + goal prediction: implementatie van algoritmen + parameter tuning + verslag</t>
+  </si>
+  <si>
+    <t>goal prediction: parameters modellen opzoeken + score functie + in firebase opslaan + interactie met android</t>
+  </si>
+  <si>
+    <t>goal prediction android: set new goal + activity recognition: standardisatie en normalisatie + jupyter notebook maken</t>
+  </si>
+  <si>
+    <t>data verzamelen: jump rope (slow, fast, mixed) + inlezen en analyseren + literatuurstudie: recommender systems</t>
+  </si>
+  <si>
+    <t>activity recognition: datasets mergen + literatuurstudie: recommender systems + eerste poging bedenken</t>
   </si>
 </sst>
 </file>
@@ -566,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +612,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>5.354166666666667</v>
+        <v>6.1458333333333339</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F50" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F55" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1480,6 +1495,96 @@
       <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734E392-2849-4A16-B893-80A158FDF796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E5469-66D1-40F5-8834-EC11943A696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>datum</t>
   </si>
@@ -199,6 +200,57 @@
   </si>
   <si>
     <t>activity recognition: datasets mergen + literatuurstudie: recommender systems + eerste poging bedenken</t>
+  </si>
+  <si>
+    <t>ROPE SKIPPING</t>
+  </si>
+  <si>
+    <t>feature extraction bij de algoritmes</t>
+  </si>
+  <si>
+    <t>cross over</t>
+  </si>
+  <si>
+    <t>full turn</t>
+  </si>
+  <si>
+    <t>caboose</t>
+  </si>
+  <si>
+    <t>leg - over</t>
+  </si>
+  <si>
+    <t>verschil tussen draairichting</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>tellen hoeveel draaiingen</t>
+  </si>
+  <si>
+    <t>trantities: op welke tijdstippen wat gedaan</t>
+  </si>
+  <si>
+    <t>RECOMMENDATIONS</t>
+  </si>
+  <si>
+    <t>rope skipping: data verzamelen + recommendation algoritme</t>
+  </si>
+  <si>
+    <t>verschil tussen polsen: hoe zien of verschil op grafiek? Of hoe berekenen</t>
+  </si>
+  <si>
+    <t>rope skipping: data verzamelen + via python sessie data ophalen (lukt nog niet) + probleem van sessie starten in android (lukt niet)</t>
+  </si>
+  <si>
+    <t>hogere samplingf</t>
+  </si>
+  <si>
+    <t>probleem met session data</t>
+  </si>
+  <si>
+    <t>rope skipping: aantal draaiingen tellen + literatuurstudie: feature engineering + dimensionality reduction + implementatie</t>
   </si>
 </sst>
 </file>
@@ -230,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,6 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -581,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +671,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>6.1458333333333339</v>
+        <v>6.9166666666666679</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F55" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F59" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1585,10 +1644,164 @@
       <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E5469-66D1-40F5-8834-EC11943A696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A647C84-5ED4-48A3-8AD9-7A829A035C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>datum</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>rope skipping: aantal draaiingen tellen + literatuurstudie: feature engineering + dimensionality reduction + implementatie</t>
+  </si>
+  <si>
+    <t>JUMP_SLOW</t>
+  </si>
+  <si>
+    <t>JUMP_FAST</t>
+  </si>
+  <si>
+    <t>SIDE_SWING</t>
+  </si>
+  <si>
+    <t>CROSS_OVER</t>
+  </si>
+  <si>
+    <t>FORWARD_180</t>
+  </si>
+  <si>
+    <t>ZELF</t>
+  </si>
+  <si>
+    <t>forward_180</t>
+  </si>
+  <si>
+    <t>jump_fast</t>
+  </si>
+  <si>
+    <t>jump_slow</t>
+  </si>
+  <si>
+    <t>side_swing</t>
+  </si>
+  <si>
+    <t>TIM</t>
+  </si>
+  <si>
+    <t>bewegingen meten: cross over, forward_180, jump slow, jump fast, leg over, side swing + transities</t>
   </si>
 </sst>
 </file>
@@ -282,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -326,6 +368,12 @@
     <xf numFmtId="46" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -640,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +719,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>6.9166666666666679</v>
+        <v>7.1250000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,7 +1240,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F59" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F60" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1716,6 +1764,24 @@
       <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -1726,82 +1792,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I17" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I18" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I19" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="I21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="I22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="I26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A647C84-5ED4-48A3-8AD9-7A829A035C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D810E-EA86-4921-90CA-B1B48255F499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>datum</t>
   </si>
@@ -287,6 +287,78 @@
   </si>
   <si>
     <t>bewegingen meten: cross over, forward_180, jump slow, jump fast, leg over, side swing + transities</t>
+  </si>
+  <si>
+    <t>PROBLEMEN</t>
+  </si>
+  <si>
+    <t>internet connectie nodig voor posten naar firstore</t>
+  </si>
+  <si>
+    <t>sessies vanop smartwatch niet zichtbaar in fitstore</t>
+  </si>
+  <si>
+    <t>periodiciteit</t>
+  </si>
+  <si>
+    <t>machine learning herkenning</t>
+  </si>
+  <si>
+    <t>google sign in fails</t>
+  </si>
+  <si>
+    <t>send message to backend when session stops</t>
+  </si>
+  <si>
+    <t>python: cannot convert to date</t>
+  </si>
+  <si>
+    <t>firestore: voor document met enkel collectie met dummy veld toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy data in firestore </t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>weergeven data in fragment</t>
+  </si>
+  <si>
+    <t>rope skipping: periodiciteit + data van smartwatch naar firestore + python script verwerking + gsm app laat historie zien</t>
+  </si>
+  <si>
+    <t>persoonlijke gegevens in backend</t>
+  </si>
+  <si>
+    <t>listener voor collectie sessions in python / historische sessie data verwijderen (accelerometer, heart rate)</t>
+  </si>
+  <si>
+    <t>error als te weinig datapunten bij dimensionaly reduction met meer componenten</t>
+  </si>
+  <si>
+    <t>backend in orde brengen: recommendations + goal calculation + rope skipping</t>
+  </si>
+  <si>
+    <t>testen/debuggen  backend + app ontwikkelen</t>
+  </si>
+  <si>
+    <t>activity recognition transitions not received (receives once but no data)</t>
+  </si>
+  <si>
+    <t>normal activity recognition only 1 update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity recognition api (transition + normal) </t>
+  </si>
+  <si>
+    <t>activity recognition api (transition + normal) + notification bij genereren van recommendation</t>
+  </si>
+  <si>
+    <t>melding bij te hoge hartslag + bij starten sessie controleren of weer ok is</t>
+  </si>
+  <si>
+    <t>scriptie schrijven: leren werken met latex + bestaand word verslag converteren</t>
   </si>
 </sst>
 </file>
@@ -688,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +791,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>7.1250000000000009</v>
+        <v>8.2812500000000018</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F60" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F66" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1782,6 +1854,122 @@
       <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777735E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43905</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1792,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2056,6 +2244,83 @@
         <v>66</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D810E-EA86-4921-90CA-B1B48255F499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BFFCB8-C786-49BB-9C6F-B85C4DF4D0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>datum</t>
   </si>
@@ -355,17 +355,80 @@
     <t>activity recognition api (transition + normal) + notification bij genereren van recommendation</t>
   </si>
   <si>
-    <t>melding bij te hoge hartslag + bij starten sessie controleren of weer ok is</t>
-  </si>
-  <si>
     <t>scriptie schrijven: leren werken met latex + bestaand word verslag converteren</t>
+  </si>
+  <si>
+    <t>melding bij te hoge hartslag + bij starten sessie controleren of weer ok is + RMS feature + detecteren in touw springen + gebruikers recommendation laten negeren</t>
+  </si>
+  <si>
+    <t>scriptie schrijven</t>
+  </si>
+  <si>
+    <t>in touw springen</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + rope skipping bewegingen meten</t>
+  </si>
+  <si>
+    <t>balanceer verschillende datasets</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + tensorflow cnn</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + notebook ordenen + verschillende datasets</t>
+  </si>
+  <si>
+    <t>left + forward</t>
+  </si>
+  <si>
+    <t>left + backwards</t>
+  </si>
+  <si>
+    <t>right + forward</t>
+  </si>
+  <si>
+    <t>right + backwards</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + data inlezen + mistakes dataset</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + aantal draaiingen</t>
+  </si>
+  <si>
+    <t>http://www.source-code.biz/dsp/java/</t>
+  </si>
+  <si>
+    <t>JAVA DSP</t>
+  </si>
+  <si>
+    <t>http://stella.aip.de/javadoc/standard/vec_math/LinearSmoothing.html</t>
+  </si>
+  <si>
+    <t>https://orangepalantir.org/ijplugins/src/SavitzkyGolayFilter.html</t>
+  </si>
+  <si>
+    <t>eventueel python script runnen vanuit app?</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + parameters savgol filter tunen</t>
+  </si>
+  <si>
+    <t>find mistakes in accelerometer signal</t>
+  </si>
+  <si>
+    <t>SIDE SWING: variatie bij starten links of rechts</t>
+  </si>
+  <si>
+    <t>meten + inlezen metingen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +452,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +493,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,11 +514,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -446,8 +552,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -760,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +907,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>8.2812500000000018</v>
+        <v>10.170138888888889</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,7 +1428,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F66" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F80" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -1928,7 +2044,7 @@
         <v>9.0277777777777735E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43904</v>
       </c>
@@ -1946,7 +2062,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43904</v>
       </c>
@@ -1957,19 +2073,267 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43905</v>
       </c>
+      <c r="B67" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="K71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11458333333333331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="1"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B78" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1980,50 +2344,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K1" s="12"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="X3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="Z4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="10"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8"/>
+      <c r="X5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="19"/>
+      <c r="AD5" s="17"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -2032,8 +2484,22 @@
         <v>78</v>
       </c>
       <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="X6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="19"/>
+      <c r="AD6" s="17"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -2041,15 +2507,25 @@
       <c r="I7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="X7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="19"/>
+      <c r="AD7" s="17"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2057,17 +2533,25 @@
       <c r="I8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="16" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="X8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="19"/>
+      <c r="AD8" s="17"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>81</v>
       </c>
@@ -2075,11 +2559,24 @@
       <c r="I9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="10"/>
+      <c r="X9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="11"/>
+      <c r="AB9" s="10"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -2087,73 +2584,77 @@
       <c r="I10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H11" s="11"/>
       <c r="I11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I12" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M12" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I13" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I15" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I16" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I17" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I18" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I19" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="10" t="s">
         <v>76</v>
       </c>
@@ -2161,22 +2662,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="10" t="s">
         <v>76</v>
       </c>
@@ -2184,23 +2685,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -2221,7 +2731,7 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I27" s="14" t="s">
         <v>74</v>
       </c>
@@ -2239,7 +2749,7 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2321,8 +2831,51 @@
         <v>104</v>
       </c>
     </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A50" r:id="rId1" xr:uid="{20FFDC76-1E17-4315-AB1C-375BBF50B6F2}"/>
+    <hyperlink ref="A51" r:id="rId2" xr:uid="{F72C4840-0DFE-4A1E-BD04-1F6AA2BEA8CC}"/>
+    <hyperlink ref="A52" r:id="rId3" xr:uid="{592D74C9-677A-433E-8623-DE1EA098D540}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BFFCB8-C786-49BB-9C6F-B85C4DF4D0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213FF14D-C693-4665-84B2-1AAFA91ADC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
   <si>
     <t>datum</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>meten + inlezen metingen</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + model importeren in android</t>
   </si>
 </sst>
 </file>
@@ -876,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +910,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>10.170138888888889</v>
+        <v>10.253472222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F80" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F81" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2334,6 +2337,24 @@
       <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213FF14D-C693-4665-84B2-1AAFA91ADC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE89A7C-EE24-438E-9893-0468D55689EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
   <si>
     <t>datum</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>scriptie schrijven + model importeren in android</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING IN ANDROID</t>
+  </si>
+  <si>
+    <t>ML MODEL ON WEAR OS</t>
+  </si>
+  <si>
+    <t>kan niet gemakkelijk bestanden installeren</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + communicatie wear app en gsm app + model importeren</t>
   </si>
 </sst>
 </file>
@@ -879,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +922,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>10.253472222222223</v>
+        <v>10.336805555555557</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1431,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F81" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F82" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2353,6 +2365,24 @@
         <v>130</v>
       </c>
       <c r="F81" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
@@ -2365,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,26 +2887,37 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="H50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2891,12 +2932,7 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A50" r:id="rId1" xr:uid="{20FFDC76-1E17-4315-AB1C-375BBF50B6F2}"/>
-    <hyperlink ref="A51" r:id="rId2" xr:uid="{F72C4840-0DFE-4A1E-BD04-1F6AA2BEA8CC}"/>
-    <hyperlink ref="A52" r:id="rId3" xr:uid="{592D74C9-677A-433E-8623-DE1EA098D540}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE89A7C-EE24-438E-9893-0468D55689EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D30F9-34EF-489F-B3E3-4D44047A76F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>datum</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>scriptie schrijven + communicatie wear app en gsm app + model importeren</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + model in juiste map zetten</t>
   </si>
 </sst>
 </file>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +925,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>10.336805555555557</v>
+        <v>10.482638888888891</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F82" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F84" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2385,6 +2388,42 @@
       <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D30F9-34EF-489F-B3E3-4D44047A76F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5688F7A7-B0F9-43BB-B4E4-9A9FE9C7F457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>datum</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>scriptie schrijven + model in juiste map zetten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scriptie schrijven + model aan de praat krijgen </t>
+  </si>
+  <si>
+    <t>crash als bluetooth niet aan</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + trantities berekenen</t>
+  </si>
+  <si>
+    <t>post session activities to firebase + show in app + convert date</t>
   </si>
 </sst>
 </file>
@@ -894,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +937,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>10.482638888888891</v>
+        <v>10.982638888888891</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F84" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F88" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2424,6 +2436,78 @@
       <c r="F84" s="2">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2434,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,37 +3010,44 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>131</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
         <v>124</v>
       </c>
     </row>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5688F7A7-B0F9-43BB-B4E4-9A9FE9C7F457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A40BB2-E953-4238-BA1A-DA13AFFD0C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
   <si>
     <t>datum</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>post session activities to firebase + show in app + convert date</t>
+  </si>
+  <si>
+    <t>heart rate data in app + post to firebase</t>
+  </si>
+  <si>
+    <t>calculate turns + mistakes + structureren code + visualisatie</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +943,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>10.982638888888891</v>
+        <v>11.253472222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F88" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F90" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2508,6 +2514,42 @@
       <c r="F88" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2563,7 @@
   <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3062,7 +3104,11 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A55" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
+    <hyperlink ref="A54" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A40BB2-E953-4238-BA1A-DA13AFFD0C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258897E-B21B-4BBD-942C-664F35FF90B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>datum</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>calculate turns + mistakes + structureren code + visualisatie</t>
+  </si>
+  <si>
+    <t>WORKMANAGER</t>
+  </si>
+  <si>
+    <t>goal calculation + recommendation is deferable en periodiek</t>
+  </si>
+  <si>
+    <t>TODO: check of er iets in recommendation table zit</t>
+  </si>
+  <si>
+    <t>goal calculation + recommendations + migrate to room db + databinding</t>
   </si>
 </sst>
 </file>
@@ -912,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +955,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>11.253472222222223</v>
+        <v>11.670138888888889</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F90" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F91" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2550,6 +2562,32 @@
       <c r="F90" s="2">
         <f t="shared" si="1"/>
         <v>0.22916666666666663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43918</v>
+      </c>
+      <c r="D92" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +2601,7 @@
   <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3057,25 +3095,31 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>131</v>
       </c>
       <c r="H51" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
       <c r="H52" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>121</v>
       </c>
@@ -3083,12 +3127,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>124</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258897E-B21B-4BBD-942C-664F35FF90B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4C809-A3DA-47DB-BFB4-27B456380F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>datum</t>
   </si>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t>goal calculation + recommendations + migrate to room db + databinding</t>
+  </si>
+  <si>
+    <t>GEBRUIKER LATEN SNOOZEN</t>
+  </si>
+  <si>
+    <t>snooze tijdstippen bijhouden</t>
+  </si>
+  <si>
+    <t>in interval van uur: meer gewicht geven aan recente snooze tijdstipen</t>
+  </si>
+  <si>
+    <t>als aantal in uur over een threshold is, dan geen notificatie sturen</t>
   </si>
 </sst>
 </file>
@@ -926,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2600,11 +2612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3095,9 +3110,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -3107,8 +3122,11 @@
       <c r="M51" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -3118,21 +3136,30 @@
       <c r="M52" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>124</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4C809-A3DA-47DB-BFB4-27B456380F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0898D-22C5-473A-8897-0C12D47869DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
   <si>
     <t>datum</t>
   </si>
@@ -466,9 +466,6 @@
     <t>goal calculation + recommendation is deferable en periodiek</t>
   </si>
   <si>
-    <t>TODO: check of er iets in recommendation table zit</t>
-  </si>
-  <si>
     <t>goal calculation + recommendations + migrate to room db + databinding</t>
   </si>
   <si>
@@ -482,6 +479,12 @@
   </si>
   <si>
     <t>als aantal in uur over een threshold is, dan geen notificatie sturen</t>
+  </si>
+  <si>
+    <t>activity transition + recommendation + scriptie schrijven</t>
+  </si>
+  <si>
+    <t>MELDING BIJ TE HOGE HARTSLAG</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +568,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -594,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -621,6 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +977,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>11.670138888888889</v>
+        <v>11.836805555555555</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1488,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F91" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F92" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2587,7 +2597,7 @@
         <v>0.875</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="1"/>
@@ -2598,8 +2608,18 @@
       <c r="A92" s="1">
         <v>43918</v>
       </c>
+      <c r="B92" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.625</v>
+      </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -2610,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="I36" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,23 +3130,26 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>131</v>
       </c>
       <c r="H51" t="s">
         <v>132</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="T51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N51" s="22"/>
+      <c r="T51" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -3137,10 +3160,10 @@
         <v>143</v>
       </c>
       <c r="T52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>121</v>
       </c>
@@ -3148,21 +3171,29 @@
         <v>122</v>
       </c>
       <c r="T53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>123</v>
       </c>
       <c r="T54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T57" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0898D-22C5-473A-8897-0C12D47869DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760585E2-A69B-43BA-A3B5-554A8FF28DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
   <si>
     <t>datum</t>
   </si>
@@ -485,6 +485,21 @@
   </si>
   <si>
     <t>MELDING BIJ TE HOGE HARTSLAG</t>
+  </si>
+  <si>
+    <t>CROSS_OVER: variatie bij met of zonder tussensprong?</t>
+  </si>
+  <si>
+    <t>PROEFPERSOON 2</t>
+  </si>
+  <si>
+    <t>PROEFPERSOON 1</t>
+  </si>
+  <si>
+    <t>metingen</t>
+  </si>
+  <si>
+    <t>metingen verwerken + cnn model</t>
   </si>
 </sst>
 </file>
@@ -531,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +589,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -603,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -631,6 +652,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +1004,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>11.836805555555555</v>
+        <v>12.232638888888889</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1498,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F92" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F95" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2620,6 +2647,60 @@
       <c r="F92" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C94" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B95" s="20">
+        <v>0.8125</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
@@ -2630,32 +2711,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="12"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -2677,7 +2759,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2687,21 +2769,22 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="X3" s="16" t="s">
-        <v>83</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
       <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -2726,24 +2809,24 @@
         <v>118</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="Z4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10" t="s">
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10" t="s">
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10" t="s">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="10"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF4" s="10"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -2757,14 +2840,16 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="X5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
+      <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -2780,15 +2865,22 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
       <c r="X6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -2806,15 +2898,22 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
       <c r="X7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2836,11 +2935,10 @@
       <c r="X8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="19"/>
-      <c r="AD8" s="17"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y8" s="19"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>81</v>
       </c>
@@ -2856,16 +2954,18 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="8"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="8"/>
       <c r="X9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
-      <c r="AB9" s="10"/>
-      <c r="AD9" s="11"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y9" s="11"/>
+      <c r="AA9" s="10"/>
+      <c r="AC9" s="11"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -2877,14 +2977,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H11" s="11"/>
       <c r="I11" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I12" s="10" t="s">
         <v>78</v>
       </c>
@@ -2892,22 +2992,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I13" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="M13" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I14" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I15" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I16" s="10" t="s">
         <v>78</v>
       </c>
@@ -3196,12 +3304,10 @@
       <c r="W57" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760585E2-A69B-43BA-A3B5-554A8FF28DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B950B-DA73-4309-A084-B3D8C02462A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>datum</t>
   </si>
@@ -202,45 +202,15 @@
     <t>activity recognition: datasets mergen + literatuurstudie: recommender systems + eerste poging bedenken</t>
   </si>
   <si>
-    <t>ROPE SKIPPING</t>
-  </si>
-  <si>
-    <t>feature extraction bij de algoritmes</t>
-  </si>
-  <si>
     <t>cross over</t>
   </si>
   <si>
-    <t>full turn</t>
-  </si>
-  <si>
-    <t>caboose</t>
-  </si>
-  <si>
-    <t>leg - over</t>
-  </si>
-  <si>
-    <t>verschil tussen draairichting</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>tellen hoeveel draaiingen</t>
   </si>
   <si>
-    <t>trantities: op welke tijdstippen wat gedaan</t>
-  </si>
-  <si>
-    <t>RECOMMENDATIONS</t>
-  </si>
-  <si>
     <t>rope skipping: data verzamelen + recommendation algoritme</t>
   </si>
   <si>
-    <t>verschil tussen polsen: hoe zien of verschil op grafiek? Of hoe berekenen</t>
-  </si>
-  <si>
     <t>rope skipping: data verzamelen + via python sessie data ophalen (lukt nog niet) + probleem van sessie starten in android (lukt niet)</t>
   </si>
   <si>
@@ -253,21 +223,6 @@
     <t>rope skipping: aantal draaiingen tellen + literatuurstudie: feature engineering + dimensionality reduction + implementatie</t>
   </si>
   <si>
-    <t>JUMP_SLOW</t>
-  </si>
-  <si>
-    <t>JUMP_FAST</t>
-  </si>
-  <si>
-    <t>SIDE_SWING</t>
-  </si>
-  <si>
-    <t>CROSS_OVER</t>
-  </si>
-  <si>
-    <t>FORWARD_180</t>
-  </si>
-  <si>
     <t>ZELF</t>
   </si>
   <si>
@@ -316,24 +271,12 @@
     <t>firestore: voor document met enkel collectie met dummy veld toevoegen</t>
   </si>
   <si>
-    <t xml:space="preserve">dummy data in firestore </t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>weergeven data in fragment</t>
-  </si>
-  <si>
     <t>rope skipping: periodiciteit + data van smartwatch naar firestore + python script verwerking + gsm app laat historie zien</t>
   </si>
   <si>
     <t>persoonlijke gegevens in backend</t>
   </si>
   <si>
-    <t>listener voor collectie sessions in python / historische sessie data verwijderen (accelerometer, heart rate)</t>
-  </si>
-  <si>
     <t>error als te weinig datapunten bij dimensionaly reduction met meer componenten</t>
   </si>
   <si>
@@ -500,13 +443,31 @@
   </si>
   <si>
     <t>metingen verwerken + cnn model</t>
+  </si>
+  <si>
+    <t>VERSLAG</t>
+  </si>
+  <si>
+    <t>max hartslag</t>
+  </si>
+  <si>
+    <t>TENSORFLOW LITE</t>
+  </si>
+  <si>
+    <t>In both cases, the tensor indices should correspond to the values you gave to the TensorFlow Lite Converter when you created the model. Be aware that the order of tensors in input must match the order given to the TensorFlow Lite Converter.</t>
+  </si>
+  <si>
+    <t>interpreter.close();</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/examples/blob/master/lite/examples/object_detection/android/app/src/main/java/org/tensorflow/lite/examples/detection/tflite/TFLiteObjectDetectionAPIModel.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,8 +506,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF37474F"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,12 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,12 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -640,24 +595,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,18 +933,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="71.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +965,7 @@
         <v>12.232638888888889</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>43862</v>
       </c>
@@ -1025,7 +983,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>43863</v>
       </c>
@@ -1043,7 +1001,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
@@ -1061,7 +1019,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
@@ -1079,7 +1037,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
@@ -1097,7 +1055,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
@@ -1115,7 +1073,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>43868</v>
       </c>
@@ -1133,7 +1091,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>43868</v>
       </c>
@@ -1151,7 +1109,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>43869</v>
       </c>
@@ -1169,7 +1127,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>43870</v>
       </c>
@@ -1187,7 +1145,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>43871</v>
       </c>
@@ -1205,7 +1163,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>43871</v>
       </c>
@@ -1223,7 +1181,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>43872</v>
       </c>
@@ -1241,7 +1199,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>43873</v>
       </c>
@@ -1259,7 +1217,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1277,7 +1235,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1295,7 +1253,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>43874</v>
       </c>
@@ -1313,7 +1271,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>43875</v>
       </c>
@@ -1331,7 +1289,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>43875</v>
       </c>
@@ -1349,7 +1307,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>43876</v>
       </c>
@@ -1367,7 +1325,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>43877</v>
       </c>
@@ -1385,7 +1343,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>43877</v>
       </c>
@@ -1403,7 +1361,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>43878</v>
       </c>
@@ -1421,7 +1379,7 @@
         <v>0.14583333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>43878</v>
       </c>
@@ -1439,7 +1397,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>43879</v>
       </c>
@@ -1457,7 +1415,7 @@
         <v>3.1250000000000056E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>43879</v>
       </c>
@@ -1475,7 +1433,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>43879</v>
       </c>
@@ -1493,7 +1451,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>43880</v>
       </c>
@@ -1511,7 +1469,7 @@
         <v>0.17708333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>43880</v>
       </c>
@@ -1529,7 +1487,7 @@
         <v>0.19791666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>43881</v>
       </c>
@@ -1547,7 +1505,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>43882</v>
       </c>
@@ -1565,7 +1523,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>43882</v>
       </c>
@@ -1583,7 +1541,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>43882</v>
       </c>
@@ -1601,7 +1559,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>43882</v>
       </c>
@@ -1619,7 +1577,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>43883</v>
       </c>
@@ -1637,7 +1595,7 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>43883</v>
       </c>
@@ -1655,7 +1613,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>43884</v>
       </c>
@@ -1673,7 +1631,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>43885</v>
       </c>
@@ -1691,7 +1649,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>43885</v>
       </c>
@@ -1709,7 +1667,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>43886</v>
       </c>
@@ -1727,7 +1685,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>43886</v>
       </c>
@@ -1745,7 +1703,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>43887</v>
       </c>
@@ -1763,7 +1721,7 @@
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43887</v>
       </c>
@@ -1781,7 +1739,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43888</v>
       </c>
@@ -1799,7 +1757,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>43889</v>
       </c>
@@ -1817,7 +1775,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>43889</v>
       </c>
@@ -1835,7 +1793,7 @@
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>43890</v>
       </c>
@@ -1853,7 +1811,7 @@
         <v>0.18749999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>43891</v>
       </c>
@@ -1871,7 +1829,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>43891</v>
       </c>
@@ -1889,7 +1847,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>43892</v>
       </c>
@@ -1907,7 +1865,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>43893</v>
       </c>
@@ -1925,7 +1883,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>43894</v>
       </c>
@@ -1943,7 +1901,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>43894</v>
       </c>
@@ -1961,7 +1919,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>43894</v>
       </c>
@@ -1979,7 +1937,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>43896</v>
       </c>
@@ -1990,14 +1948,14 @@
         <v>0.875</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>43897</v>
       </c>
@@ -2008,14 +1966,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>43898</v>
       </c>
@@ -2026,14 +1984,14 @@
         <v>0.5</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>43898</v>
       </c>
@@ -2044,14 +2002,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>43899</v>
       </c>
@@ -2062,14 +2020,14 @@
         <v>0.75</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>43901</v>
       </c>
@@ -2080,14 +2038,14 @@
         <v>0.875</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>43902</v>
       </c>
@@ -2098,14 +2056,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>0.24999999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>43903</v>
       </c>
@@ -2116,14 +2074,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>43904</v>
       </c>
@@ -2134,14 +2092,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>9.0277777777777735E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>43904</v>
       </c>
@@ -2152,14 +2110,14 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>43904</v>
       </c>
@@ -2170,14 +2128,14 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>43905</v>
       </c>
@@ -2188,14 +2146,14 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>43906</v>
       </c>
@@ -2206,14 +2164,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>43907</v>
       </c>
@@ -2224,14 +2182,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>43908</v>
       </c>
@@ -2242,14 +2200,14 @@
         <v>0.5625</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>43908</v>
       </c>
@@ -2260,7 +2218,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="1"/>
@@ -2268,10 +2226,10 @@
       </c>
       <c r="H71" s="1"/>
       <c r="K71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>43909</v>
       </c>
@@ -2282,14 +2240,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>43909</v>
       </c>
@@ -2300,14 +2258,14 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>43910</v>
       </c>
@@ -2318,14 +2276,14 @@
         <v>0.5625</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="1"/>
         <v>0.11458333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>43910</v>
       </c>
@@ -2336,14 +2294,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>43910</v>
       </c>
@@ -2354,14 +2312,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>43911</v>
       </c>
@@ -2372,32 +2330,32 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="1"/>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>43911</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="18">
         <v>0.66666666666666663</v>
       </c>
       <c r="C78" s="2">
         <v>0.75</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>43911</v>
       </c>
@@ -2408,14 +2366,14 @@
         <v>0.9375</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>43912</v>
       </c>
@@ -2426,14 +2384,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>43912</v>
       </c>
@@ -2444,14 +2402,14 @@
         <v>0.875</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>43912</v>
       </c>
@@ -2462,14 +2420,14 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>43913</v>
       </c>
@@ -2480,14 +2438,14 @@
         <v>0.5</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="1"/>
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>43913</v>
       </c>
@@ -2498,14 +2456,14 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>43913</v>
       </c>
@@ -2516,14 +2474,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>43914</v>
       </c>
@@ -2534,14 +2492,14 @@
         <v>0.625</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>43914</v>
       </c>
@@ -2552,14 +2510,14 @@
         <v>0.84375</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>43914</v>
       </c>
@@ -2570,14 +2528,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>43916</v>
       </c>
@@ -2588,14 +2546,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>43916</v>
       </c>
@@ -2606,14 +2564,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="1"/>
         <v>0.22916666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>43917</v>
       </c>
@@ -2624,14 +2582,14 @@
         <v>0.875</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>43918</v>
       </c>
@@ -2642,14 +2600,14 @@
         <v>0.625</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>43919</v>
       </c>
@@ -2660,43 +2618,43 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" si="1"/>
         <v>6.2500000000000056E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>43919</v>
       </c>
       <c r="B94" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="22">
         <v>0.75</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>43919</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="18">
         <v>0.8125</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="1"/>
@@ -2711,44 +2669,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="M2" s="10"/>
+    <row r="1" spans="1:29">
+      <c r="A1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="L1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="C2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="T2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
@@ -2759,564 +2745,345 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="9" t="s">
+    <row r="3" spans="1:29">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="L3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="L5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="L6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="L7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="X3" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="O4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>118</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="Y4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF4" s="10"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="X5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="X6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="X7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="X8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" s="19"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="8"/>
-      <c r="X9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="AA9" s="10"/>
-      <c r="AC9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="H11" s="11"/>
-      <c r="I11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I14" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I15" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="I16" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I18" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I19" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="R25" t="s">
-        <v>110</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="I35" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" t="s">
-        <v>132</v>
-      </c>
-      <c r="M51" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="N51" s="22"/>
-      <c r="T51" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" t="s">
-        <v>133</v>
-      </c>
-      <c r="M52" t="s">
-        <v>143</v>
-      </c>
-      <c r="T52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-      <c r="T53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="T54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T57" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-    </row>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="2">
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
-    <hyperlink ref="A54" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
+    <hyperlink ref="A39" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>
+    <hyperlink ref="I22" r:id="rId3" xr:uid="{526033EA-FAB1-44BA-96AA-F0B53D47DB9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B950B-DA73-4309-A084-B3D8C02462A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0164D5D2-4F67-4B07-9A31-4974027CE50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t>datum</t>
   </si>
@@ -610,11 +610,11 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>12.232638888888889</v>
+        <v>12.315972222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F95" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F96" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2659,6 +2659,24 @@
       <c r="F95" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+    <sheetView topLeftCell="C11" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -2698,10 +2716,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="10" t="s">
@@ -2931,7 +2949,7 @@
       <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>141</v>
       </c>
     </row>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0164D5D2-4F67-4B07-9A31-4974027CE50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BC1EB-01EB-43E8-9C3A-6A8D23EAB4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="160">
   <si>
     <t>datum</t>
   </si>
@@ -451,16 +451,67 @@
     <t>max hartslag</t>
   </si>
   <si>
-    <t>TENSORFLOW LITE</t>
-  </si>
-  <si>
-    <t>In both cases, the tensor indices should correspond to the values you gave to the TensorFlow Lite Converter when you created the model. Be aware that the order of tensors in input must match the order given to the TensorFlow Lite Converter.</t>
-  </si>
-  <si>
-    <t>interpreter.close();</t>
-  </si>
-  <si>
-    <t>https://github.com/tensorflow/examples/blob/master/lite/examples/object_detection/android/app/src/main/java/org/tensorflow/lite/examples/detection/tflite/TFLiteObjectDetectionAPIModel.java</t>
+    <t>https://spark.apache.org/docs/1.6.1/api/java/index.html?org/apache/spark/sql/DataFrame.html</t>
+  </si>
+  <si>
+    <t>refereren nr referentie gebruikt in literatuurstudie van paper??</t>
+  </si>
+  <si>
+    <t>\subsection{The 220-age equation does not predict maximum heart rate inchildren and adolescents}</t>
+  </si>
+  <si>
+    <t>\subsection{An Empirical Evaluation of the Prediction of Maximal Heart Rate}</t>
+  </si>
+  <si>
+    <t>\citep{ref7}</t>
+  </si>
+  <si>
+    <t>???????????</t>
+  </si>
+  <si>
+    <t>Automated e-Coaching System Architecture Framework for Promoting Physical Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In een persistance layer worden expert rules in verband met </t>
+  </si>
+  <si>
+    <t>De database bevat waarden van alle concepten voor de patienten en vragen en berichten gebaseerd op de behavior change theory en practice. Dit wordt per uur geupdate according to regels in de diagnostic process. Rule based reasonings lost problemen op met feiten en regels afgeleid uit expert kennis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De service layer is verdeeld in componenten. Knowledge base bevat regels die dynamisch de attribuut gewichten aanpassen van de karakteristieken van een gebruiker. Om deze regels te creeren wordt informatie vanuit relevante literatuur gebruikt. Ook wordt kennis van een gezondheidspractinionar gebuikt. De regels worden gebruikt om een lijst van stage matched strategien en goal templates te genereren. De knowledge inference engine genereert recommandations op basis van de kennis. Rules transformation gebeurt in 2 modules. De expert driven rules module gebruikt kennis van domain experts gebruik makend van een data driven reasoning technique. </t>
+  </si>
+  <si>
+    <t>De data driven regel module genereert regels automatisch.</t>
+  </si>
+  <si>
+    <t>De application layer bestaat ook uit verschillende componenten. De user profile and self reported questionnaire manager biedt de gebruiker een mogelijkheid om zijn info aan te passen. Gebaseerd hierop zal de service layer de rule execution uitvoeren.</t>
+  </si>
+  <si>
+    <t>\newline</t>
+  </si>
+  <si>
+    <t>Aangezien we hier te maken hebben met meer dan 1 klasse, is multi class classification noodzakelijk. Dit kan in scikit learn geimplementeerd worden op verschillende manieren.</t>
+  </si>
+  <si>
+    <t>1. ONE VS THE REST</t>
+  </si>
+  <si>
+    <t>Hierbij zullen n classifiers gebruikt worden,  waarbij n het aantal klassen is, om de totolae output te bekomen. Elke classifier zal 1 klasse fitten tegenover alle andere klassen (klasse labels zijn dan "klasse" en rest).</t>
+  </si>
+  <si>
+    <t>2. ONE VS ONE</t>
+  </si>
+  <si>
+    <t>Hierbij zijn  n_classes * (n_classes - 1) / 2 classifiers nodig aangezien voor elk paar klassen een classifier gebouwd wordt. Dit kan een voordeel zijn bij algoritmes die niet optimaal schalen, aangezien hier elke classifier slechts werkt met een subset van de totlae dataset.</t>
+  </si>
+  <si>
+    <t>NORMALIZATION LAYER: http://cs231n.github.io/convolutional-networks/</t>
+  </si>
+  <si>
+    <t>date + aantal draaiingen + tensorflow in android app</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + data meten + inlezen</t>
   </si>
 </sst>
 </file>
@@ -513,7 +564,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +601,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -579,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -608,7 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -616,6 +672,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,6 +683,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCDCD"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -931,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -962,7 +1028,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>12.315972222222223</v>
+        <v>12.753472222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1483,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F96" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F99" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2632,7 +2698,7 @@
       <c r="B94" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="27">
         <v>0.75</v>
       </c>
       <c r="D94" t="s">
@@ -2647,7 +2713,7 @@
       <c r="A95" s="1">
         <v>43919</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="28">
         <v>0.8125</v>
       </c>
       <c r="C95" s="2">
@@ -2677,6 +2743,60 @@
       <c r="F96" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D99" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333326</v>
       </c>
     </row>
   </sheetData>
@@ -2687,15 +2807,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" customWidth="1"/>
     <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2716,10 +2836,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="10" t="s">
@@ -2789,11 +2909,15 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="10" t="s">
         <v>65</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
@@ -2810,11 +2934,15 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="L5" s="10" t="s">
         <v>66</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -2843,15 +2971,21 @@
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="L7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="20"/>
@@ -2861,7 +2995,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="20"/>
@@ -2932,7 +3066,7 @@
       <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="16" t="s">
         <v>139</v>
       </c>
       <c r="J19" s="20"/>
@@ -2941,25 +3075,18 @@
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>142</v>
-      </c>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
@@ -3060,6 +3187,9 @@
       <c r="A37" t="s">
         <v>106</v>
       </c>
+      <c r="I37" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="16" t="s">
@@ -3068,6 +3198,9 @@
       <c r="E38" t="s">
         <v>103</v>
       </c>
+      <c r="I38" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="16" t="s">
@@ -3078,19 +3211,91 @@
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
+      <c r="I40" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>113</v>
       </c>
+      <c r="I42" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
+      <c r="I43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="I44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="I47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="I48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" ht="15" customHeight="1">
+      <c r="I49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" ht="15" customHeight="1">
+      <c r="I50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="X1:Y1"/>
@@ -3099,7 +3304,7 @@
   <hyperlinks>
     <hyperlink ref="A40" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
     <hyperlink ref="A39" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>
-    <hyperlink ref="I22" r:id="rId3" xr:uid="{526033EA-FAB1-44BA-96AA-F0B53D47DB9D}"/>
+    <hyperlink ref="I19" r:id="rId3" xr:uid="{FC3E8EDC-6129-4D1E-A47B-36ADF4C781ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BC1EB-01EB-43E8-9C3A-6A8D23EAB4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402262F3-1868-41BC-AFE8-D1E0AF777FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
   <si>
     <t>datum</t>
   </si>
@@ -512,6 +512,33 @@
   </si>
   <si>
     <t>scriptie schrijven + data meten + inlezen</t>
+  </si>
+  <si>
+    <t>FORWARD_180 + SIDE_SWING: minder gewicht geven aan overgangen ertussen</t>
+  </si>
+  <si>
+    <t>AANTAL DRAAIINGEN FINETUNEN</t>
+  </si>
+  <si>
+    <t>met alle varaties in python</t>
+  </si>
+  <si>
+    <t>forward_180: moeilijk om met filter te doen</t>
+  </si>
+  <si>
+    <t>mistakes via machine learning classificeren (knippen in signalen) + tunen savgol parameters</t>
+  </si>
+  <si>
+    <t>MISTAKES DETECTEREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afgeleide gaat moeilijk in java </t>
+  </si>
+  <si>
+    <t>via machine learning</t>
+  </si>
+  <si>
+    <t>mistake filtering + normalizing in app + debugging + activities in db + layout</t>
   </si>
 </sst>
 </file>
@@ -669,13 +696,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1028,7 +1055,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>12.753472222222223</v>
+        <v>13.034722222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1549,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F99" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F101" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2698,7 +2725,7 @@
       <c r="B94" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="26">
         <v>0.75</v>
       </c>
       <c r="D94" t="s">
@@ -2713,7 +2740,7 @@
       <c r="A95" s="1">
         <v>43919</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="27">
         <v>0.8125</v>
       </c>
       <c r="C95" s="2">
@@ -2797,6 +2824,42 @@
       <c r="F99" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17708333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -2809,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2836,10 +2899,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="10" t="s">
@@ -2954,12 +3017,16 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="L6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="17"/>
+      <c r="N6" s="15"/>
       <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="10" t="s">
@@ -2975,14 +3042,14 @@
       <c r="L7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="22" t="s">
@@ -2993,6 +3060,15 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
+      <c r="G10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="22" t="s">
@@ -3049,56 +3125,56 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3106,21 +3182,33 @@
         <v>123</v>
       </c>
       <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="R25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>77</v>
       </c>
       <c r="I26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="R26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -3130,31 +3218,42 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>81</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="R30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>85</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="R31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>93</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402262F3-1868-41BC-AFE8-D1E0AF777FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D4007-F34D-48B7-AD66-2C31EFC5BD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="172">
   <si>
     <t>datum</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>mistake filtering + normalizing in app + debugging + activities in db + layout</t>
+  </si>
+  <si>
+    <t>app design</t>
+  </si>
+  <si>
+    <t>FULL ACCELEROMETER + HEARTBEAT DATA IN ROOM OR NOT?</t>
+  </si>
+  <si>
+    <t>app design + metingen + verwerken van metingen</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +643,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -663,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,6 +718,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1055,7 +1073,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>13.034722222222223</v>
+        <v>13.326388888888889</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1576,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F101" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F103" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2860,6 +2878,42 @@
       <c r="F101" s="2">
         <f t="shared" si="1"/>
         <v>0.17708333333333337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2872,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2952,14 +3006,14 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="11"/>
       <c r="L3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="31"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="10" t="s">
@@ -3052,14 +3106,14 @@
       <c r="T7" s="24"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="22" t="s">
         <v>160</v>
       </c>
@@ -3258,7 +3312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -3268,13 +3322,21 @@
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="R33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="I35" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -3282,7 +3344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -3290,7 +3352,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:23">
       <c r="A38" s="16" t="s">
         <v>102</v>
       </c>
@@ -3301,12 +3363,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:23">
       <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:23">
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
@@ -3314,7 +3376,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -3322,7 +3384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -3330,27 +3392,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:23">
       <c r="I44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:23">
       <c r="I45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:23">
       <c r="I46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:23">
       <c r="I47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:23">
       <c r="I48" t="s">
         <v>149</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D4007-F34D-48B7-AD66-2C31EFC5BD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95D183-9E8B-4B12-AC0E-435B33979639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="174">
   <si>
     <t>datum</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>app design + metingen + verwerken van metingen</t>
+  </si>
+  <si>
+    <t>app design (navigation drawer + loginactivity…)</t>
+  </si>
+  <si>
+    <t>app design (hamburger menu + header + recommendation recyclerview)</t>
   </si>
 </sst>
 </file>
@@ -715,12 +721,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1073,7 +1079,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>13.326388888888889</v>
+        <v>13.534722222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1594,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F103" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F105" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2914,6 +2920,42 @@
       <c r="F103" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2953,10 +2995,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="10" t="s">
@@ -3011,7 +3053,7 @@
         <v>64</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="31"/>
+      <c r="N3" s="30"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="11"/>
     </row>
@@ -3106,14 +3148,14 @@
       <c r="T7" s="24"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="22" t="s">
         <v>160</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95D183-9E8B-4B12-AC0E-435B33979639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28564CB2-3715-451B-A63D-BA0EAF16FD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>datum</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>app design (hamburger menu + header + recommendation recyclerview)</t>
+  </si>
+  <si>
+    <t>metingen verwerken</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1079,7 +1082,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>13.534722222222223</v>
+        <v>13.784722222222223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1600,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F105" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F107" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2956,6 +2959,42 @@
       <c r="F105" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -2968,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3048,14 +3087,21 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="L3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="17"/>
       <c r="N3" s="30"/>
+      <c r="O3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="11"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="10" t="s">
@@ -3116,13 +3162,21 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="L6" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="10" t="s">

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28564CB2-3715-451B-A63D-BA0EAF16FD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11AC4A-693B-46E0-92ED-061EE72FF91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
   <si>
     <t>datum</t>
   </si>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>metingen verwerken</t>
+  </si>
+  <si>
+    <t>metingen knippen</t>
+  </si>
+  <si>
+    <t>mistakes in rekening brengen bij recommendations</t>
+  </si>
+  <si>
+    <t>meten + mistakes in rekening brengen bij recommendations</t>
+  </si>
+  <si>
+    <t>recommendation notifications + verwerken metingen</t>
   </si>
 </sst>
 </file>
@@ -687,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,7 +738,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1082,7 +1093,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>13.784722222222223</v>
+        <v>14.326388888888889</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1603,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F107" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F112" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2995,6 +3006,96 @@
       <c r="F107" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D108" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D109" t="s">
+        <v>175</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>176</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D112" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333326</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3109,7 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3034,10 +3135,10 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="10" t="s">
@@ -3093,15 +3194,18 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="L3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="30"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="11"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="10" t="s">

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11AC4A-693B-46E0-92ED-061EE72FF91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E2167-F7A0-4854-9391-031AECD7DDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
   <si>
     <t>datum</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>recommendation notifications + verwerken metingen</t>
+  </si>
+  <si>
+    <t>start session for recommendation + snooze + metingen verwerken</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1093,7 +1096,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>14.326388888888889</v>
+        <v>14.555555555555555</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1614,7 +1617,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F112" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F114" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3096,6 +3099,42 @@
       <c r="F112" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D113" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D114" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E2167-F7A0-4854-9391-031AECD7DDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9858AB-7874-4BB2-83AE-175678793AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
   <si>
     <t>datum</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>start session for recommendation + snooze + metingen verwerken</t>
+  </si>
+  <si>
+    <t>validation data + verwerken + recommendation: pending + done</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>14.555555555555555</v>
+        <v>14.805555555555555</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1617,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F114" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F115" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3135,6 +3138,24 @@
       <c r="F114" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9858AB-7874-4BB2-83AE-175678793AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29858D8-13D5-441E-B984-857A98EC8FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
   <si>
     <t>datum</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>validation data + verwerken + recommendation: pending + done</t>
+  </si>
+  <si>
+    <t>age ophalen uit profiel + sign out</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1099,7 +1102,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>14.805555555555555</v>
+        <v>14.868055555555555</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1620,7 +1623,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F115" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F116" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3156,6 +3159,24 @@
       <c r="F115" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29858D8-13D5-441E-B984-857A98EC8FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AE13B-26E1-4EC7-8251-8DFF617D8110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
   <si>
     <t>datum</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>age ophalen uit profiel + sign out</t>
+  </si>
+  <si>
+    <t>presentatie 1e bachelor</t>
+  </si>
+  <si>
+    <t>check voor minder dan 1 second data + testen berekening draaiingen + aanpassing nummering recommendations + verdere debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smartwatch app + metingen </t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -750,6 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1071,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1102,7 +1112,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>14.868055555555555</v>
+        <v>15.180555555555555</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1623,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F116" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F119" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3177,6 +3187,60 @@
       <c r="F116" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D118" t="s">
+        <v>182</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -3187,20 +3251,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="7.77734375" customWidth="1"/>
     <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:41">
       <c r="A1" s="9" t="s">
         <v>133</v>
       </c>
@@ -3216,12 +3281,23 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
+      <c r="V1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="8"/>
       <c r="X1" s="30"/>
       <c r="Y1" s="30"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AG1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+    </row>
+    <row r="2" spans="1:41">
       <c r="C2" s="10" t="s">
         <v>96</v>
       </c>
@@ -3254,16 +3330,40 @@
         <v>99</v>
       </c>
       <c r="T2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="X2" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="AB2" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="AC2" s="10"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AH2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" s="10"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
@@ -3287,8 +3387,31 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="V3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AG3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
@@ -3312,8 +3435,31 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="V4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AG4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="10" t="s">
         <v>66</v>
       </c>
@@ -3337,8 +3483,31 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="V5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AG5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
@@ -3362,8 +3531,31 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="V6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AG6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3577,31 @@
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="V7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AG7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -3405,7 +3620,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:41">
       <c r="A11" s="22" t="s">
         <v>132</v>
       </c>
@@ -3415,19 +3630,19 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:41">
       <c r="I12" s="12"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:41">
       <c r="I13" s="12"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3442,7 +3657,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3451,7 +3666,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3739,10 +3954,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A40" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
     <hyperlink ref="A39" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AE13B-26E1-4EC7-8251-8DFF617D8110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A569A1A0-1279-4F6A-9B40-88EBCE05378E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
   <si>
     <t>datum</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t xml:space="preserve">smartwatch app + metingen </t>
+  </si>
+  <si>
+    <t>presentatie 1e bachelor + metingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smartwatch app (sign in + out, design, …) + metingen </t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -759,7 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1081,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>15.180555555555555</v>
+        <v>15.402777777777777</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1633,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F119" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F121" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3239,6 +3244,42 @@
         <v>184</v>
       </c>
       <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D120" t="s">
+        <v>185</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222265E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D121" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -3254,7 +3295,7 @@
   <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3391,10 +3432,10 @@
         <v>64</v>
       </c>
       <c r="W3" s="10"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
@@ -3402,14 +3443,14 @@
       <c r="AG3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
@@ -3546,14 +3587,14 @@
       <c r="AG6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="10" t="s">
@@ -3581,13 +3622,13 @@
         <v>56</v>
       </c>
       <c r="W7" s="10"/>
-      <c r="X7" s="11"/>
+      <c r="X7" s="8"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
+      <c r="AB7" s="8"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="AD7" s="8"/>
       <c r="AE7" s="11"/>
       <c r="AG7" s="10" t="s">
         <v>56</v>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A569A1A0-1279-4F6A-9B40-88EBCE05378E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741A78E-DAC9-4B3E-ACBD-0F7111FFBB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="195">
   <si>
     <t>datum</t>
   </si>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t xml:space="preserve">smartwatch app (sign in + out, design, …) + metingen </t>
+  </si>
+  <si>
+    <t>smartwatch app (design + bluetooth keuze..)</t>
+  </si>
+  <si>
+    <t>design + communicatie smartwatch en smartphone</t>
+  </si>
+  <si>
+    <t>TODO: communicatie smartphone -&gt; smartwatch</t>
+  </si>
+  <si>
+    <t>TODO: workmanager</t>
+  </si>
+  <si>
+    <t>presentatie</t>
+  </si>
+  <si>
+    <t>TODO: visualiseer activiteiten</t>
+  </si>
+  <si>
+    <t>TODO: age</t>
+  </si>
+  <si>
+    <t>TODO: alerts</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1117,7 +1141,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>15.402777777777777</v>
+        <v>15.673611111111109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1638,7 +1662,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F121" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F124" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3282,6 +3306,85 @@
       <c r="F121" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D122" t="s">
+        <v>187</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D123" t="s">
+        <v>188</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D124" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3398,7 @@
   <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3436,10 +3539,10 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
       <c r="AG3" s="10" t="s">
         <v>64</v>
       </c>
@@ -3576,14 +3679,14 @@
         <v>67</v>
       </c>
       <c r="W6" s="10"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
       <c r="AG6" s="10" t="s">
         <v>67</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741A78E-DAC9-4B3E-ACBD-0F7111FFBB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE763370-4133-4461-A82E-ECA00641D094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>datum</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>TODO: alerts</t>
+  </si>
+  <si>
+    <t>meten</t>
+  </si>
+  <si>
+    <t>android app: recommendation algo aanpassen + laten werken zonder activiteiten</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1141,7 +1147,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>15.673611111111109</v>
+        <v>15.819444444444443</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1662,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F124" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F126" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3360,6 +3366,42 @@
       <c r="F124" s="2">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D125" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D126" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="129" spans="4:4">
@@ -3398,7 +3440,7 @@
   <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE763370-4133-4461-A82E-ECA00641D094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335B1B-0137-41B7-8046-5850F4D03732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
   <si>
     <t>datum</t>
   </si>
@@ -412,18 +412,6 @@
     <t>goal calculation + recommendations + migrate to room db + databinding</t>
   </si>
   <si>
-    <t>GEBRUIKER LATEN SNOOZEN</t>
-  </si>
-  <si>
-    <t>snooze tijdstippen bijhouden</t>
-  </si>
-  <si>
-    <t>in interval van uur: meer gewicht geven aan recente snooze tijdstipen</t>
-  </si>
-  <si>
-    <t>als aantal in uur over een threshold is, dan geen notificatie sturen</t>
-  </si>
-  <si>
     <t>activity transition + recommendation + scriptie schrijven</t>
   </si>
   <si>
@@ -623,6 +611,27 @@
   </si>
   <si>
     <t>android app: recommendation algo aanpassen + laten werken zonder activiteiten</t>
+  </si>
+  <si>
+    <t>metingen verwerken, timeline visualisatie</t>
+  </si>
+  <si>
+    <t>timeline visualisatie</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING</t>
+  </si>
+  <si>
+    <t>enkel trainen op linker of rechterpols</t>
+  </si>
+  <si>
+    <t>verschillen tussen geknipte forward 180 en niet</t>
+  </si>
+  <si>
+    <t>andere algoritmes testen</t>
+  </si>
+  <si>
+    <t>bespreking + metingen verwerken + combinaties hyperparameters uitproberen + presentatie</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1147,7 +1156,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>15.819444444444443</v>
+        <v>16.194444444444446</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1668,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F126" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F129" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -2785,7 +2794,7 @@
         <v>0.625</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="1"/>
@@ -2821,7 +2830,7 @@
         <v>0.75</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="1"/>
@@ -2839,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="1"/>
@@ -2875,7 +2884,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="1"/>
@@ -2911,7 +2920,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" si="1"/>
@@ -2929,7 +2938,7 @@
         <v>0.5625</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" si="1"/>
@@ -2947,7 +2956,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" si="1"/>
@@ -2965,7 +2974,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" si="1"/>
@@ -2983,7 +2992,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" si="1"/>
@@ -3001,7 +3010,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" si="1"/>
@@ -3019,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" si="1"/>
@@ -3037,7 +3046,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" si="1"/>
@@ -3055,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" si="1"/>
@@ -3073,7 +3082,7 @@
         <v>0.5625</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" si="1"/>
@@ -3091,7 +3100,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D109" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" si="1"/>
@@ -3109,7 +3118,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F110" s="2">
         <f t="shared" si="1"/>
@@ -3127,7 +3136,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="1"/>
@@ -3145,7 +3154,7 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="D112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="1"/>
@@ -3163,7 +3172,7 @@
         <v>0.5625</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="1"/>
@@ -3181,7 +3190,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="1"/>
@@ -3199,7 +3208,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" si="1"/>
@@ -3217,7 +3226,7 @@
         <v>0.5625</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" si="1"/>
@@ -3235,7 +3244,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" si="1"/>
@@ -3253,7 +3262,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D118" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" si="1"/>
@@ -3271,7 +3280,7 @@
         <v>0.6875</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" si="1"/>
@@ -3289,7 +3298,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" si="1"/>
@@ -3307,7 +3316,7 @@
         <v>0.875</v>
       </c>
       <c r="D121" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" si="1"/>
@@ -3325,7 +3334,7 @@
         <v>0.5625</v>
       </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" si="1"/>
@@ -3343,7 +3352,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" si="1"/>
@@ -3361,7 +3370,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D124" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" si="1"/>
@@ -3379,7 +3388,7 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" si="1"/>
@@ -3397,36 +3406,90 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D126" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D127" t="s">
+        <v>193</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D128" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D129" t="s">
+        <v>199</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="D132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="D133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="D134" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
-      <c r="D130" t="s">
+    <row r="135" spans="1:6">
+      <c r="D135" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3439,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView topLeftCell="Q20" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3453,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="21"/>
@@ -3461,14 +3524,14 @@
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="L1" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="V1" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W1" s="8"/>
       <c r="X1" s="30"/>
@@ -3476,7 +3539,7 @@
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
       <c r="AG1" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AH1" s="30"/>
       <c r="AI1" s="30"/>
@@ -3797,7 +3860,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -3808,7 +3871,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3861,56 +3924,56 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:25">
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:25">
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3919,13 +3982,16 @@
       </c>
       <c r="J25" s="20"/>
       <c r="R25" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -3933,63 +3999,61 @@
         <v>124</v>
       </c>
       <c r="R26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>158</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>159</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="Y28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="I29" t="s">
-        <v>127</v>
-      </c>
       <c r="R29" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="I30" t="s">
-        <v>128</v>
-      </c>
       <c r="R30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="I31" t="s">
-        <v>129</v>
-      </c>
       <c r="R31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3999,13 +4063,13 @@
         <v>118</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="R33" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
@@ -4015,7 +4079,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="I35" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4023,7 +4087,7 @@
         <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4031,7 +4095,7 @@
         <v>106</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4042,7 +4106,7 @@
         <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4055,7 +4119,7 @@
         <v>105</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4063,7 +4127,7 @@
         <v>113</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4071,72 +4135,72 @@
         <v>114</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="I44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="I45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="I46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="I47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="I48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="9:9" ht="15" customHeight="1">
       <c r="I49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="9:9" ht="15" customHeight="1">
       <c r="I50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335B1B-0137-41B7-8046-5850F4D03732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5EB80-1B1D-4A8F-81DD-D6389B035C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
   <si>
     <t>datum</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>bespreking + metingen verwerken + combinaties hyperparameters uitproberen + presentatie</t>
+  </si>
+  <si>
+    <t>experimenten machine learning</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1156,7 +1159,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>16.194444444444446</v>
+        <v>16.319444444444446</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1677,7 +1680,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F129" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F130" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3467,28 +3470,46 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="D131" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D130" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="D136" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="D132" t="s">
+    <row r="137" spans="1:6">
+      <c r="D137" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="D133" t="s">
+    <row r="138" spans="1:6">
+      <c r="D138" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="D134" t="s">
+    <row r="139" spans="1:6">
+      <c r="D139" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="D135" t="s">
+    <row r="140" spans="1:6">
+      <c r="D140" t="s">
         <v>190</v>
       </c>
     </row>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5EB80-1B1D-4A8F-81DD-D6389B035C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0D463-EFD6-42C1-89EB-A12F462E02C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="207">
   <si>
     <t>datum</t>
   </si>
@@ -635,6 +635,24 @@
   </si>
   <si>
     <t>experimenten machine learning</t>
+  </si>
+  <si>
+    <t>machine learning onderzoek + sleutelen aan parameters</t>
+  </si>
+  <si>
+    <t>presentatie 1e bachelor + verder machine learning onderzoek</t>
+  </si>
+  <si>
+    <t>forward 180 + cross over meten</t>
+  </si>
+  <si>
+    <t>metingen verwerken + android batch size</t>
+  </si>
+  <si>
+    <t>testen batch size + debuggen</t>
+  </si>
+  <si>
+    <t>workmanager + melding bij te hoge hartslag + tonen mets + verwerken metingen</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1159,7 +1177,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>16.319444444444446</v>
+        <v>16.923611111111111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1680,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F130" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F136" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3452,7 +3470,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>43936</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>43936</v>
       </c>
@@ -3488,28 +3506,136 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D131" t="s">
+        <v>201</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D132" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D133" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>204</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1</v>
+      </c>
       <c r="D136" t="s">
+        <v>206</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="K137" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="D137" t="s">
+    <row r="138" spans="1:11">
+      <c r="K138" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="D138" t="s">
+    <row r="139" spans="1:11">
+      <c r="K139" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="D139" t="s">
+    <row r="140" spans="1:11">
+      <c r="K140" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="D140" t="s">
+    <row r="141" spans="1:11">
+      <c r="K141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3523,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView topLeftCell="Q20" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3661,25 +3787,11 @@
         <v>64</v>
       </c>
       <c r="W3" s="10"/>
-      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
       <c r="AG3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
@@ -3852,13 +3964,13 @@
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
-      <c r="AC7" s="11"/>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="11"/>
+      <c r="AE7" s="8"/>
       <c r="AG7" s="10" t="s">
         <v>56</v>
       </c>

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0D463-EFD6-42C1-89EB-A12F462E02C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494DA90-3E7A-4735-AAB4-C2AD66EECFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="210">
   <si>
     <t>datum</t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>workmanager + melding bij te hoge hartslag + tonen mets + verwerken metingen</t>
+  </si>
+  <si>
+    <t>testen workmanager + debuggen</t>
+  </si>
+  <si>
+    <t>forward 180 meten + presentatie</t>
+  </si>
+  <si>
+    <t>metingen verwerken + tijd stilgezeten notificatie + presentatie + recommendation algoritme bijwerken</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1177,7 +1186,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>16.923611111111111</v>
+        <v>17.284722222222218</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1698,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F136" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F140" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3615,21 +3624,82 @@
       </c>
     </row>
     <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D137" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
       <c r="K137" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D138" t="s">
+        <v>208</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="K138" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>209</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
       <c r="K139" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444364E-2</v>
+      </c>
       <c r="K140" t="s">
         <v>189</v>
       </c>
@@ -3650,7 +3720,7 @@
   <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="AM3" sqref="AL3:AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3787,11 +3857,19 @@
         <v>64</v>
       </c>
       <c r="W3" s="10"/>
+      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
       <c r="AG3" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494DA90-3E7A-4735-AAB4-C2AD66EECFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE5E6C-C852-4E30-B57C-49A07BF94A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
   <si>
     <t>datum</t>
   </si>
@@ -662,6 +662,12 @@
   </si>
   <si>
     <t>metingen verwerken + tijd stilgezeten notificatie + presentatie + recommendation algoritme bijwerken</t>
+  </si>
+  <si>
+    <t>fouten detecteren via afgeleide</t>
+  </si>
+  <si>
+    <t>bluetooth connectie vragen via alert + debuggen</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1186,7 +1192,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>17.284722222222218</v>
+        <v>17.388888888888886</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1707,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F140" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F141" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3696,6 +3702,9 @@
       <c r="C140" s="2">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D140" t="s">
+        <v>210</v>
+      </c>
       <c r="F140" s="2">
         <f t="shared" si="1"/>
         <v>6.9444444444444364E-2</v>
@@ -3705,6 +3714,22 @@
       </c>
     </row>
     <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D141" t="s">
+        <v>211</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666674</v>
+      </c>
       <c r="K141" t="s">
         <v>190</v>
       </c>
@@ -3719,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AL3:AM3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3868,8 +3893,12 @@
       <c r="AG3" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="10" t="s">
@@ -3916,7 +3945,7 @@
       <c r="AK4" s="17"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
+      <c r="AN4" s="17"/>
       <c r="AO4" s="15"/>
     </row>
     <row r="5" spans="1:41">

--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22cd2a338b9d000e/Documenten/master/masterproef/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE5E6C-C852-4E30-B57C-49A07BF94A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{F2B2C97E-1AAA-4543-8408-155B03302139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90E201CF-3E5A-42B0-8963-283F39573F1A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="TODO" sheetId="2" r:id="rId2"/>
+    <sheet name="validatie" sheetId="3" r:id="rId3"/>
+    <sheet name="APP evaluatie" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="231">
   <si>
     <t>datum</t>
   </si>
@@ -668,6 +672,63 @@
   </si>
   <si>
     <t>bluetooth connectie vragen via alert + debuggen</t>
+  </si>
+  <si>
+    <t>metingen verwerken + people api</t>
+  </si>
+  <si>
+    <t>people API + meten + fouten testen</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>FORWARD_180</t>
+  </si>
+  <si>
+    <t>BACKWARD_180</t>
+  </si>
+  <si>
+    <t>JUMP_SLOW</t>
+  </si>
+  <si>
+    <t>JUMP_FAST</t>
+  </si>
+  <si>
+    <t>SIDE_SWING</t>
+  </si>
+  <si>
+    <t>CROSS_OVER</t>
+  </si>
+  <si>
+    <t>DAG 1</t>
+  </si>
+  <si>
+    <t>forward 180</t>
+  </si>
+  <si>
+    <t>backward 180</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + machine learning model optimaliseren</t>
+  </si>
+  <si>
+    <t>machine learning model optimaliseren</t>
+  </si>
+  <si>
+    <t>machine learning model optimaliseren + validatiedata</t>
+  </si>
+  <si>
+    <t>android app debuggen</t>
+  </si>
+  <si>
+    <t>machine learning model testen + fouten verder bekijken</t>
+  </si>
+  <si>
+    <t>aantal draaiingen testen + fout in tijd bekijken  + tensorflow lite</t>
+  </si>
+  <si>
+    <t>berekeningen migreren naar backend + django connectie + body sensor permission + jump run meten</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1192,7 +1253,7 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>17.388888888888886</v>
+        <v>18.951388888888886</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1713,7 +1774,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ref="F30:F141" si="1">C30-B30</f>
+        <f t="shared" ref="F30:F144" si="1">C30-B30</f>
         <v>0.19791666666666663</v>
       </c>
     </row>
@@ -3732,6 +3793,204 @@
       </c>
       <c r="K141" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D142" t="s">
+        <v>213</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D143" t="s">
+        <v>212</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D144" t="s">
+        <v>90</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="D145" t="s">
+        <v>224</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" ref="F145:F152" si="2">C145-B145</f>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D146" t="s">
+        <v>225</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>226</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D149" t="s">
+        <v>227</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D150" t="s">
+        <v>228</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D151" t="s">
+        <v>229</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D152" t="s">
+        <v>230</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -3744,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
   <dimension ref="A1:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4164,20 +4423,23 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:34">
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="AH17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4186,34 +4448,34 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4231,7 +4493,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -4245,7 +4507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4256,7 +4518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -4267,7 +4529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4277,7 +4539,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4285,7 +4547,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -4293,7 +4555,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -4452,4 +4714,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC6C5C-F045-46B6-92CE-959C425AD8B5}">
+  <dimension ref="A1:BA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:53">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53">
+      <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z2" s="10"/>
+      <c r="AB2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI2" s="10"/>
+      <c r="AK2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR2" s="10"/>
+      <c r="AT2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="10"/>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9647703-9319-49E7-9047-3FB7A4ED945E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logboek-masterproef.xlsx
+++ b/logboek-masterproef.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22cd2a338b9d000e/Documenten/master/masterproef/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elise\OneDrive\Documenten\master\masterproef\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{F2B2C97E-1AAA-4543-8408-155B03302139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90E201CF-3E5A-42B0-8963-283F39573F1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C1927-22A7-43CB-BFE4-6F8633C7F8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{839A580B-E71F-4714-813D-E450C27D6D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="TODO" sheetId="2" r:id="rId2"/>
-    <sheet name="validatie" sheetId="3" r:id="rId3"/>
-    <sheet name="APP evaluatie" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
   <si>
     <t>datum</t>
   </si>
@@ -206,96 +203,30 @@
     <t>activity recognition: datasets mergen + literatuurstudie: recommender systems + eerste poging bedenken</t>
   </si>
   <si>
-    <t>cross over</t>
-  </si>
-  <si>
-    <t>tellen hoeveel draaiingen</t>
-  </si>
-  <si>
     <t>rope skipping: data verzamelen + recommendation algoritme</t>
   </si>
   <si>
     <t>rope skipping: data verzamelen + via python sessie data ophalen (lukt nog niet) + probleem van sessie starten in android (lukt niet)</t>
   </si>
   <si>
-    <t>hogere samplingf</t>
-  </si>
-  <si>
     <t>probleem met session data</t>
   </si>
   <si>
     <t>rope skipping: aantal draaiingen tellen + literatuurstudie: feature engineering + dimensionality reduction + implementatie</t>
   </si>
   <si>
-    <t>ZELF</t>
-  </si>
-  <si>
-    <t>forward_180</t>
-  </si>
-  <si>
-    <t>jump_fast</t>
-  </si>
-  <si>
-    <t>jump_slow</t>
-  </si>
-  <si>
-    <t>side_swing</t>
-  </si>
-  <si>
-    <t>TIM</t>
-  </si>
-  <si>
     <t>bewegingen meten: cross over, forward_180, jump slow, jump fast, leg over, side swing + transities</t>
   </si>
   <si>
-    <t>PROBLEMEN</t>
-  </si>
-  <si>
-    <t>internet connectie nodig voor posten naar firstore</t>
-  </si>
-  <si>
-    <t>sessies vanop smartwatch niet zichtbaar in fitstore</t>
-  </si>
-  <si>
-    <t>periodiciteit</t>
-  </si>
-  <si>
-    <t>machine learning herkenning</t>
-  </si>
-  <si>
-    <t>google sign in fails</t>
-  </si>
-  <si>
-    <t>send message to backend when session stops</t>
-  </si>
-  <si>
-    <t>python: cannot convert to date</t>
-  </si>
-  <si>
-    <t>firestore: voor document met enkel collectie met dummy veld toevoegen</t>
-  </si>
-  <si>
     <t>rope skipping: periodiciteit + data van smartwatch naar firestore + python script verwerking + gsm app laat historie zien</t>
   </si>
   <si>
-    <t>persoonlijke gegevens in backend</t>
-  </si>
-  <si>
-    <t>error als te weinig datapunten bij dimensionaly reduction met meer componenten</t>
-  </si>
-  <si>
     <t>backend in orde brengen: recommendations + goal calculation + rope skipping</t>
   </si>
   <si>
     <t>testen/debuggen  backend + app ontwikkelen</t>
   </si>
   <si>
-    <t>activity recognition transitions not received (receives once but no data)</t>
-  </si>
-  <si>
-    <t>normal activity recognition only 1 update</t>
-  </si>
-  <si>
     <t xml:space="preserve">activity recognition api (transition + normal) </t>
   </si>
   <si>
@@ -305,84 +236,36 @@
     <t>scriptie schrijven: leren werken met latex + bestaand word verslag converteren</t>
   </si>
   <si>
-    <t>melding bij te hoge hartslag + bij starten sessie controleren of weer ok is + RMS feature + detecteren in touw springen + gebruikers recommendation laten negeren</t>
-  </si>
-  <si>
     <t>scriptie schrijven</t>
   </si>
   <si>
-    <t>in touw springen</t>
-  </si>
-  <si>
     <t>scriptie schrijven + rope skipping bewegingen meten</t>
   </si>
   <si>
-    <t>balanceer verschillende datasets</t>
-  </si>
-  <si>
     <t>scriptie schrijven + tensorflow cnn</t>
   </si>
   <si>
     <t>scriptie schrijven + notebook ordenen + verschillende datasets</t>
   </si>
   <si>
-    <t>left + forward</t>
-  </si>
-  <si>
-    <t>left + backwards</t>
-  </si>
-  <si>
-    <t>right + forward</t>
-  </si>
-  <si>
-    <t>right + backwards</t>
-  </si>
-  <si>
     <t>scriptie schrijven + data inlezen + mistakes dataset</t>
   </si>
   <si>
     <t>scriptie schrijven + aantal draaiingen</t>
   </si>
   <si>
-    <t>http://www.source-code.biz/dsp/java/</t>
-  </si>
-  <si>
-    <t>JAVA DSP</t>
-  </si>
-  <si>
-    <t>http://stella.aip.de/javadoc/standard/vec_math/LinearSmoothing.html</t>
-  </si>
-  <si>
-    <t>https://orangepalantir.org/ijplugins/src/SavitzkyGolayFilter.html</t>
-  </si>
-  <si>
-    <t>eventueel python script runnen vanuit app?</t>
-  </si>
-  <si>
     <t>scriptie schrijven + parameters savgol filter tunen</t>
   </si>
   <si>
     <t>find mistakes in accelerometer signal</t>
   </si>
   <si>
-    <t>SIDE SWING: variatie bij starten links of rechts</t>
-  </si>
-  <si>
     <t>meten + inlezen metingen</t>
   </si>
   <si>
     <t>scriptie schrijven + model importeren in android</t>
   </si>
   <si>
-    <t>DATA PROCESSING IN ANDROID</t>
-  </si>
-  <si>
-    <t>ML MODEL ON WEAR OS</t>
-  </si>
-  <si>
-    <t>kan niet gemakkelijk bestanden installeren</t>
-  </si>
-  <si>
     <t>scriptie schrijven + communicatie wear app en gsm app + model importeren</t>
   </si>
   <si>
@@ -392,9 +275,6 @@
     <t xml:space="preserve">scriptie schrijven + model aan de praat krijgen </t>
   </si>
   <si>
-    <t>crash als bluetooth niet aan</t>
-  </si>
-  <si>
     <t>scriptie schrijven + trantities berekenen</t>
   </si>
   <si>
@@ -407,138 +287,33 @@
     <t>calculate turns + mistakes + structureren code + visualisatie</t>
   </si>
   <si>
-    <t>WORKMANAGER</t>
-  </si>
-  <si>
-    <t>goal calculation + recommendation is deferable en periodiek</t>
-  </si>
-  <si>
     <t>goal calculation + recommendations + migrate to room db + databinding</t>
   </si>
   <si>
     <t>activity transition + recommendation + scriptie schrijven</t>
   </si>
   <si>
-    <t>MELDING BIJ TE HOGE HARTSLAG</t>
-  </si>
-  <si>
-    <t>CROSS_OVER: variatie bij met of zonder tussensprong?</t>
-  </si>
-  <si>
-    <t>PROEFPERSOON 2</t>
-  </si>
-  <si>
-    <t>PROEFPERSOON 1</t>
-  </si>
-  <si>
     <t>metingen</t>
   </si>
   <si>
     <t>metingen verwerken + cnn model</t>
   </si>
   <si>
-    <t>VERSLAG</t>
-  </si>
-  <si>
-    <t>max hartslag</t>
-  </si>
-  <si>
-    <t>https://spark.apache.org/docs/1.6.1/api/java/index.html?org/apache/spark/sql/DataFrame.html</t>
-  </si>
-  <si>
-    <t>refereren nr referentie gebruikt in literatuurstudie van paper??</t>
-  </si>
-  <si>
-    <t>\subsection{The 220-age equation does not predict maximum heart rate inchildren and adolescents}</t>
-  </si>
-  <si>
-    <t>\subsection{An Empirical Evaluation of the Prediction of Maximal Heart Rate}</t>
-  </si>
-  <si>
-    <t>\citep{ref7}</t>
-  </si>
-  <si>
-    <t>???????????</t>
-  </si>
-  <si>
-    <t>Automated e-Coaching System Architecture Framework for Promoting Physical Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In een persistance layer worden expert rules in verband met </t>
-  </si>
-  <si>
-    <t>De database bevat waarden van alle concepten voor de patienten en vragen en berichten gebaseerd op de behavior change theory en practice. Dit wordt per uur geupdate according to regels in de diagnostic process. Rule based reasonings lost problemen op met feiten en regels afgeleid uit expert kennis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De service layer is verdeeld in componenten. Knowledge base bevat regels die dynamisch de attribuut gewichten aanpassen van de karakteristieken van een gebruiker. Om deze regels te creeren wordt informatie vanuit relevante literatuur gebruikt. Ook wordt kennis van een gezondheidspractinionar gebuikt. De regels worden gebruikt om een lijst van stage matched strategien en goal templates te genereren. De knowledge inference engine genereert recommandations op basis van de kennis. Rules transformation gebeurt in 2 modules. De expert driven rules module gebruikt kennis van domain experts gebruik makend van een data driven reasoning technique. </t>
-  </si>
-  <si>
-    <t>De data driven regel module genereert regels automatisch.</t>
-  </si>
-  <si>
-    <t>De application layer bestaat ook uit verschillende componenten. De user profile and self reported questionnaire manager biedt de gebruiker een mogelijkheid om zijn info aan te passen. Gebaseerd hierop zal de service layer de rule execution uitvoeren.</t>
-  </si>
-  <si>
-    <t>\newline</t>
-  </si>
-  <si>
-    <t>Aangezien we hier te maken hebben met meer dan 1 klasse, is multi class classification noodzakelijk. Dit kan in scikit learn geimplementeerd worden op verschillende manieren.</t>
-  </si>
-  <si>
-    <t>1. ONE VS THE REST</t>
-  </si>
-  <si>
-    <t>Hierbij zullen n classifiers gebruikt worden,  waarbij n het aantal klassen is, om de totolae output te bekomen. Elke classifier zal 1 klasse fitten tegenover alle andere klassen (klasse labels zijn dan "klasse" en rest).</t>
-  </si>
-  <si>
-    <t>2. ONE VS ONE</t>
-  </si>
-  <si>
-    <t>Hierbij zijn  n_classes * (n_classes - 1) / 2 classifiers nodig aangezien voor elk paar klassen een classifier gebouwd wordt. Dit kan een voordeel zijn bij algoritmes die niet optimaal schalen, aangezien hier elke classifier slechts werkt met een subset van de totlae dataset.</t>
-  </si>
-  <si>
-    <t>NORMALIZATION LAYER: http://cs231n.github.io/convolutional-networks/</t>
-  </si>
-  <si>
     <t>date + aantal draaiingen + tensorflow in android app</t>
   </si>
   <si>
     <t>scriptie schrijven + data meten + inlezen</t>
   </si>
   <si>
-    <t>FORWARD_180 + SIDE_SWING: minder gewicht geven aan overgangen ertussen</t>
-  </si>
-  <si>
-    <t>AANTAL DRAAIINGEN FINETUNEN</t>
-  </si>
-  <si>
-    <t>met alle varaties in python</t>
-  </si>
-  <si>
-    <t>forward_180: moeilijk om met filter te doen</t>
-  </si>
-  <si>
     <t>mistakes via machine learning classificeren (knippen in signalen) + tunen savgol parameters</t>
   </si>
   <si>
-    <t>MISTAKES DETECTEREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afgeleide gaat moeilijk in java </t>
-  </si>
-  <si>
-    <t>via machine learning</t>
-  </si>
-  <si>
     <t>mistake filtering + normalizing in app + debugging + activities in db + layout</t>
   </si>
   <si>
     <t>app design</t>
   </si>
   <si>
-    <t>FULL ACCELEROMETER + HEARTBEAT DATA IN ROOM OR NOT?</t>
-  </si>
-  <si>
     <t>app design + metingen + verwerken van metingen</t>
   </si>
   <si>
@@ -593,24 +368,9 @@
     <t>design + communicatie smartwatch en smartphone</t>
   </si>
   <si>
-    <t>TODO: communicatie smartphone -&gt; smartwatch</t>
-  </si>
-  <si>
-    <t>TODO: workmanager</t>
-  </si>
-  <si>
     <t>presentatie</t>
   </si>
   <si>
-    <t>TODO: visualiseer activiteiten</t>
-  </si>
-  <si>
-    <t>TODO: age</t>
-  </si>
-  <si>
-    <t>TODO: alerts</t>
-  </si>
-  <si>
     <t>meten</t>
   </si>
   <si>
@@ -623,18 +383,6 @@
     <t>timeline visualisatie</t>
   </si>
   <si>
-    <t>MACHINE LEARNING</t>
-  </si>
-  <si>
-    <t>enkel trainen op linker of rechterpols</t>
-  </si>
-  <si>
-    <t>verschillen tussen geknipte forward 180 en niet</t>
-  </si>
-  <si>
-    <t>andere algoritmes testen</t>
-  </si>
-  <si>
     <t>bespreking + metingen verwerken + combinaties hyperparameters uitproberen + presentatie</t>
   </si>
   <si>
@@ -680,36 +428,6 @@
     <t>people API + meten + fouten testen</t>
   </si>
   <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>FORWARD_180</t>
-  </si>
-  <si>
-    <t>BACKWARD_180</t>
-  </si>
-  <si>
-    <t>JUMP_SLOW</t>
-  </si>
-  <si>
-    <t>JUMP_FAST</t>
-  </si>
-  <si>
-    <t>SIDE_SWING</t>
-  </si>
-  <si>
-    <t>CROSS_OVER</t>
-  </si>
-  <si>
-    <t>DAG 1</t>
-  </si>
-  <si>
-    <t>forward 180</t>
-  </si>
-  <si>
-    <t>backward 180</t>
-  </si>
-  <si>
     <t>scriptie schrijven + machine learning model optimaliseren</t>
   </si>
   <si>
@@ -729,13 +447,70 @@
   </si>
   <si>
     <t>berekeningen migreren naar backend + django connectie + body sensor permission + jump run meten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow lite probleem oplossen + mets berekening debuggen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross over splitsen </t>
+  </si>
+  <si>
+    <t>mistakes detecteren + testen + oma laten springen</t>
+  </si>
+  <si>
+    <t>mistakes implementeren + bijhorende activiteit (testen) + recommendation algoritme</t>
+  </si>
+  <si>
+    <t>applicatie debuggen (schoonheidsfoutjes eruit halen + alles grondig testen)</t>
+  </si>
+  <si>
+    <t>gyroscoop + hartslag data testen + snooze</t>
+  </si>
+  <si>
+    <t>testen met proefpersoon</t>
+  </si>
+  <si>
+    <t>verwerken metingen</t>
+  </si>
+  <si>
+    <t>metingen met gyroscoop + hartslag + scriptie</t>
+  </si>
+  <si>
+    <t>applicatie testen en finetunen + periodicworker + scriptie</t>
+  </si>
+  <si>
+    <t>user db + notification channels aanpassen + workmanager testen</t>
+  </si>
+  <si>
+    <t>testen turns + mistakes + scriptie</t>
+  </si>
+  <si>
+    <t>data proefpersoon + asynctask ipv workmanager</t>
+  </si>
+  <si>
+    <t>design applicatie + scriptie schrijven</t>
+  </si>
+  <si>
+    <t>workmanager probleem oplossen</t>
+  </si>
+  <si>
+    <t>workmanager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applicatie testen + scriptie schrijven </t>
+  </si>
+  <si>
+    <t>scriptie schrijven + problemen met applicatie context + jump run turns</t>
+  </si>
+  <si>
+    <t>scriptie schrijven + extended abstract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,29 +534,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF37474F"/>
-      <name val="Roboto Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,42 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCDCD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,11 +573,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -870,40 +587,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1222,20 +910,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8377167A-AB19-4229-9ABE-F6E665BC78B9}">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="71.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1253,10 +943,10 @@
       </c>
       <c r="F1" s="6">
         <f>SUM(F2:F564)</f>
-        <v>18.951388888888886</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>23.437499999999975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43862</v>
       </c>
@@ -1274,7 +964,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43863</v>
       </c>
@@ -1292,7 +982,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
@@ -1310,7 +1000,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
@@ -1328,7 +1018,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
@@ -1346,7 +1036,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
@@ -1364,7 +1054,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43868</v>
       </c>
@@ -1382,7 +1072,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43868</v>
       </c>
@@ -1400,7 +1090,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43869</v>
       </c>
@@ -1418,7 +1108,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43870</v>
       </c>
@@ -1436,7 +1126,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43871</v>
       </c>
@@ -1454,7 +1144,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43871</v>
       </c>
@@ -1472,7 +1162,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43872</v>
       </c>
@@ -1490,7 +1180,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43873</v>
       </c>
@@ -1508,7 +1198,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1526,7 +1216,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1544,7 +1234,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43874</v>
       </c>
@@ -1562,7 +1252,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43875</v>
       </c>
@@ -1580,7 +1270,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43875</v>
       </c>
@@ -1598,7 +1288,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43876</v>
       </c>
@@ -1616,7 +1306,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43877</v>
       </c>
@@ -1634,7 +1324,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43877</v>
       </c>
@@ -1652,7 +1342,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43878</v>
       </c>
@@ -1670,7 +1360,7 @@
         <v>0.14583333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43878</v>
       </c>
@@ -1688,7 +1378,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43879</v>
       </c>
@@ -1706,7 +1396,7 @@
         <v>3.1250000000000056E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43879</v>
       </c>
@@ -1724,7 +1414,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43879</v>
       </c>
@@ -1742,7 +1432,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43880</v>
       </c>
@@ -1760,7 +1450,7 @@
         <v>0.17708333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43880</v>
       </c>
@@ -1778,7 +1468,7 @@
         <v>0.19791666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43881</v>
       </c>
@@ -1796,7 +1486,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43882</v>
       </c>
@@ -1814,7 +1504,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43882</v>
       </c>
@@ -1832,7 +1522,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43882</v>
       </c>
@@ -1850,7 +1540,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43882</v>
       </c>
@@ -1868,7 +1558,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43883</v>
       </c>
@@ -1886,7 +1576,7 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43883</v>
       </c>
@@ -1904,7 +1594,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43884</v>
       </c>
@@ -1922,7 +1612,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43885</v>
       </c>
@@ -1940,7 +1630,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43885</v>
       </c>
@@ -1958,7 +1648,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43886</v>
       </c>
@@ -1976,7 +1666,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43886</v>
       </c>
@@ -1994,7 +1684,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43887</v>
       </c>
@@ -2012,7 +1702,7 @@
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43887</v>
       </c>
@@ -2030,7 +1720,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43888</v>
       </c>
@@ -2048,7 +1738,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43889</v>
       </c>
@@ -2066,7 +1756,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43889</v>
       </c>
@@ -2084,7 +1774,7 @@
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43890</v>
       </c>
@@ -2102,7 +1792,7 @@
         <v>0.18749999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43891</v>
       </c>
@@ -2120,7 +1810,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43891</v>
       </c>
@@ -2138,7 +1828,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43892</v>
       </c>
@@ -2156,7 +1846,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43893</v>
       </c>
@@ -2174,7 +1864,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43894</v>
       </c>
@@ -2192,7 +1882,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43894</v>
       </c>
@@ -2210,7 +1900,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43894</v>
       </c>
@@ -2228,7 +1918,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43896</v>
       </c>
@@ -2239,14 +1929,14 @@
         <v>0.875</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43897</v>
       </c>
@@ -2257,14 +1947,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43898</v>
       </c>
@@ -2275,14 +1965,14 @@
         <v>0.5</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43898</v>
       </c>
@@ -2293,14 +1983,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43899</v>
       </c>
@@ -2311,14 +2001,14 @@
         <v>0.75</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43901</v>
       </c>
@@ -2329,14 +2019,14 @@
         <v>0.875</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43902</v>
       </c>
@@ -2347,14 +2037,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>0.24999999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43903</v>
       </c>
@@ -2365,14 +2055,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43904</v>
       </c>
@@ -2383,14 +2073,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>9.0277777777777735E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43904</v>
       </c>
@@ -2401,14 +2091,14 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43904</v>
       </c>
@@ -2419,14 +2109,14 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43905</v>
       </c>
@@ -2437,14 +2127,14 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43906</v>
       </c>
@@ -2455,14 +2145,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43907</v>
       </c>
@@ -2473,14 +2163,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43908</v>
       </c>
@@ -2491,14 +2181,14 @@
         <v>0.5625</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43908</v>
       </c>
@@ -2509,18 +2199,15 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="K71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43909</v>
       </c>
@@ -2531,14 +2218,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43909</v>
       </c>
@@ -2549,14 +2236,14 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43910</v>
       </c>
@@ -2567,14 +2254,14 @@
         <v>0.5625</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="1"/>
         <v>0.11458333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43910</v>
       </c>
@@ -2585,14 +2272,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43910</v>
       </c>
@@ -2603,14 +2290,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43911</v>
       </c>
@@ -2621,32 +2308,32 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="1"/>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43911</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="C78" s="2">
         <v>0.75</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43911</v>
       </c>
@@ -2657,14 +2344,14 @@
         <v>0.9375</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43912</v>
       </c>
@@ -2675,14 +2362,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43912</v>
       </c>
@@ -2693,14 +2380,14 @@
         <v>0.875</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43912</v>
       </c>
@@ -2711,14 +2398,14 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43913</v>
       </c>
@@ -2729,14 +2416,14 @@
         <v>0.5</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="1"/>
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43913</v>
       </c>
@@ -2747,14 +2434,14 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43913</v>
       </c>
@@ -2765,14 +2452,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43914</v>
       </c>
@@ -2783,14 +2470,14 @@
         <v>0.625</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43914</v>
       </c>
@@ -2801,14 +2488,14 @@
         <v>0.84375</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43914</v>
       </c>
@@ -2819,14 +2506,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43916</v>
       </c>
@@ -2837,14 +2524,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43916</v>
       </c>
@@ -2855,14 +2542,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="1"/>
         <v>0.22916666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43917</v>
       </c>
@@ -2873,14 +2560,14 @@
         <v>0.875</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43918</v>
       </c>
@@ -2891,14 +2578,14 @@
         <v>0.625</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43919</v>
       </c>
@@ -2909,50 +2596,50 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" si="1"/>
         <v>6.2500000000000056E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43919</v>
       </c>
       <c r="B94" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="9">
         <v>0.75</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43919</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="10">
         <v>0.8125</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43920</v>
       </c>
@@ -2963,14 +2650,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43920</v>
       </c>
@@ -2981,14 +2668,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43921</v>
       </c>
@@ -2999,14 +2686,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43921</v>
       </c>
@@ -3017,14 +2704,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43922</v>
       </c>
@@ -3035,14 +2722,14 @@
         <v>0.5625</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43922</v>
       </c>
@@ -3053,14 +2740,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" si="1"/>
         <v>0.17708333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43923</v>
       </c>
@@ -3071,14 +2758,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" si="1"/>
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43923</v>
       </c>
@@ -3089,14 +2776,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D103" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43924</v>
       </c>
@@ -3107,14 +2794,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D104" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" si="1"/>
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43924</v>
       </c>
@@ -3125,14 +2812,14 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43925</v>
       </c>
@@ -3143,14 +2830,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43925</v>
       </c>
@@ -3161,14 +2848,14 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43926</v>
       </c>
@@ -3179,14 +2866,14 @@
         <v>0.5625</v>
       </c>
       <c r="D108" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43926</v>
       </c>
@@ -3197,14 +2884,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D109" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43926</v>
       </c>
@@ -3215,14 +2902,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43927</v>
       </c>
@@ -3233,14 +2920,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43927</v>
       </c>
@@ -3251,14 +2938,14 @@
         <v>1.0208333333333333</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="1"/>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43928</v>
       </c>
@@ -3269,14 +2956,14 @@
         <v>0.5625</v>
       </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43928</v>
       </c>
@@ -3287,14 +2974,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43929</v>
       </c>
@@ -3305,14 +2992,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43930</v>
       </c>
@@ -3323,14 +3010,14 @@
         <v>0.5625</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43930</v>
       </c>
@@ -3341,14 +3028,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D117" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333326</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43931</v>
       </c>
@@ -3359,14 +3046,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43931</v>
       </c>
@@ -3377,14 +3064,14 @@
         <v>0.6875</v>
       </c>
       <c r="D119" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43932</v>
       </c>
@@ -3395,14 +3082,14 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D120" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" si="1"/>
         <v>9.7222222222222265E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43932</v>
       </c>
@@ -3413,14 +3100,14 @@
         <v>0.875</v>
       </c>
       <c r="D121" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43933</v>
       </c>
@@ -3431,14 +3118,14 @@
         <v>0.5625</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43933</v>
       </c>
@@ -3449,14 +3136,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D123" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43934</v>
       </c>
@@ -3467,14 +3154,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43934</v>
       </c>
@@ -3485,14 +3172,14 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43934</v>
       </c>
@@ -3503,14 +3190,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D126" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43935</v>
       </c>
@@ -3521,14 +3208,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D127" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43935</v>
       </c>
@@ -3539,14 +3226,14 @@
         <v>0.9375</v>
       </c>
       <c r="D128" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43936</v>
       </c>
@@ -3557,14 +3244,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2">
         <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43936</v>
       </c>
@@ -3575,14 +3262,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D130" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43937</v>
       </c>
@@ -3593,14 +3280,14 @@
         <v>0.5625</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="F131" s="2">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43937</v>
       </c>
@@ -3611,14 +3298,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43938</v>
       </c>
@@ -3629,14 +3316,14 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D133" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43938</v>
       </c>
@@ -3647,14 +3334,14 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="F134" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43939</v>
       </c>
@@ -3665,14 +3352,14 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43939</v>
       </c>
@@ -3683,14 +3370,14 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43940</v>
       </c>
@@ -3701,17 +3388,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="F137" s="2">
         <f t="shared" si="1"/>
         <v>6.2500000000000056E-2</v>
       </c>
-      <c r="K137" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43940</v>
       </c>
@@ -3722,17 +3406,14 @@
         <v>0.75</v>
       </c>
       <c r="D138" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="K138" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43940</v>
       </c>
@@ -3743,17 +3424,14 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="F139" s="2">
         <f t="shared" si="1"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="K139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43941</v>
       </c>
@@ -3764,17 +3442,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2">
         <f t="shared" si="1"/>
         <v>6.9444444444444364E-2</v>
       </c>
-      <c r="K140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43941</v>
       </c>
@@ -3785,17 +3460,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="F141" s="2">
         <f t="shared" si="1"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="K141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43942</v>
       </c>
@@ -3806,14 +3478,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D142" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43942</v>
       </c>
@@ -3824,14 +3496,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D143" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43943</v>
       </c>
@@ -3842,14 +3514,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43945</v>
       </c>
@@ -3860,14 +3532,14 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="D145" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" ref="F145:F152" si="2">C145-B145</f>
+        <f t="shared" ref="F145:F193" si="2">C145-B145</f>
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43946</v>
       </c>
@@ -3878,14 +3550,14 @@
         <v>0.625</v>
       </c>
       <c r="D146" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="F146" s="2">
         <f t="shared" si="2"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43946</v>
       </c>
@@ -3896,14 +3568,14 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2">
         <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43947</v>
       </c>
@@ -3914,14 +3586,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D148" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="F148" s="2">
         <f t="shared" si="2"/>
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43947</v>
       </c>
@@ -3932,14 +3604,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D149" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43948</v>
       </c>
@@ -3950,14 +3622,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D150" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2">
         <f t="shared" si="2"/>
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43948</v>
       </c>
@@ -3968,14 +3640,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D151" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2">
         <f t="shared" si="2"/>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43949</v>
       </c>
@@ -3986,925 +3658,768 @@
         <v>0.625</v>
       </c>
       <c r="D152" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="F152" s="2">
         <f t="shared" si="2"/>
         <v>0.16666666666666669</v>
       </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C153" s="7">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>138</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D154" t="s">
+        <v>139</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C155" s="7">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>140</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D156" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15277777777777773</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D157" t="s">
+        <v>142</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>143</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D159" t="s">
+        <v>144</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D160" t="s">
+        <v>147</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D161" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D162" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D163" t="s">
+        <v>155</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C164" s="7">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>154</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D165" t="s">
+        <v>149</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D166" t="s">
+        <v>148</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D167" t="s">
+        <v>150</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D168" t="s">
+        <v>153</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D169" t="s">
+        <v>152</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C170" s="7">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>151</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D171" t="s">
+        <v>156</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>156</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>67</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>67</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>67</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>67</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>67</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>67</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>67</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>67</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>67</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D182" t="s">
+        <v>67</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>67</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>67</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>67</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>67</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D187" t="s">
+        <v>67</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>67</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>67</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>67</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>67</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>67</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>67</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0632AE7A-6979-4ACF-8714-D96F8B248BF9}">
-  <dimension ref="A1:AO60"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="L1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="V1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AG1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="C2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="M2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="X2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AH2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" s="10"/>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="V3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AG3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="V4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AG4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="15"/>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="V5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AG5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="L6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="V6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AG6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="L7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="V7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AG7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="A11" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="AH17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="R25" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="Y25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
-      <c r="R26" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R27" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="Y28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="R29" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="R30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="R33" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="I35" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="I44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="I45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="I46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="I47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="I48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" ht="15" customHeight="1">
-      <c r="I49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" ht="15" customHeight="1">
-      <c r="I50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1" xr:uid="{B2476374-AA9C-430E-A984-3DE5441447C8}"/>
-    <hyperlink ref="A39" r:id="rId2" xr:uid="{0006C5AC-957F-4819-9D84-81BA113FBF78}"/>
-    <hyperlink ref="I19" r:id="rId3" xr:uid="{FC3E8EDC-6129-4D1E-A47B-36ADF4C781ED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC6C5C-F045-46B6-92CE-959C425AD8B5}">
-  <dimension ref="A1:BA3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:53">
-      <c r="A1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53">
-      <c r="A2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="J2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="10"/>
-      <c r="AB2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI2" s="10"/>
-      <c r="AK2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR2" s="10"/>
-      <c r="AT2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" s="10"/>
-    </row>
-    <row r="3" spans="1:53">
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9647703-9319-49E7-9047-3FB7A4ED945E}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>